--- a/events.xlsx
+++ b/events.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562B3186-94E8-47B9-9283-B1817F28F4A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D01304-F151-4094-96F3-F604B1E3FBB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>You need to pass in the difficulty test 3 times</t>
-  </si>
-  <si>
-    <t>Shoot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Hat-trick</t>
   </si>
@@ -39,21 +33,12 @@
     <t>Free Kick</t>
   </si>
   <si>
-    <t>2,2,3</t>
-  </si>
-  <si>
-    <t>Defence Pass Shoot</t>
-  </si>
-  <si>
     <t>Counterattack</t>
   </si>
   <si>
     <t>2 VP</t>
   </si>
   <si>
-    <t>Defence</t>
-  </si>
-  <si>
     <t>Defend against the Counterattack</t>
   </si>
   <si>
@@ -66,20 +51,59 @@
     <t>Reward</t>
   </si>
   <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Events</t>
+  </si>
+  <si>
+    <t>3 VP</t>
+  </si>
+  <si>
+    <t>4 VP</t>
+  </si>
+  <si>
+    <t>5 VP</t>
+  </si>
+  <si>
+    <t>More rewards go here blablablabla</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Difficulty1</t>
+  </si>
+  <si>
+    <t>Difficulty2</t>
+  </si>
+  <si>
+    <t>Difficulty3</t>
+  </si>
+  <si>
+    <t>Difficulty4</t>
+  </si>
+  <si>
+    <t>shooting.svg</t>
+  </si>
+  <si>
+    <t>defence.svg</t>
+  </si>
+  <si>
+    <t>assisting.svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -88,6 +112,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,14 +145,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,117 +471,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEBC7F1-EE45-4B6D-B9A1-C2B94529B8F7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
+      <c r="K6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/events.xlsx
+++ b/events.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D01304-F151-4094-96F3-F604B1E3FBB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A15BEE01-F7B4-4414-80E6-BBADBABFDA99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Hat-trick</t>
   </si>
@@ -97,13 +97,19 @@
   </si>
   <si>
     <t>assisting.svg</t>
+  </si>
+  <si>
+    <t>Save the day</t>
+  </si>
+  <si>
+    <t>Score a header</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -112,9 +118,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -152,11 +166,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +187,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEBC7F1-EE45-4B6D-B9A1-C2B94529B8F7}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -488,32 +500,32 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -524,36 +536,40 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -564,101 +580,413 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A15BEE01-F7B4-4414-80E6-BBADBABFDA99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93162508-7C0C-4BE3-89C8-74E0394FDAF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
@@ -159,13 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -486,7 +483,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -504,28 +501,28 @@
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -546,20 +543,20 @@
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1"/>
@@ -752,7 +749,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>

--- a/events.xlsx
+++ b/events.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93162508-7C0C-4BE3-89C8-74E0394FDAF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCAA08-06E9-46B8-936B-6CF463013B5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$K$10</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Hat-trick</t>
   </si>
@@ -103,6 +106,21 @@
   </si>
   <si>
     <t>Score a header</t>
+  </si>
+  <si>
+    <t>Score the penalty</t>
+  </si>
+  <si>
+    <t>1 VP</t>
+  </si>
+  <si>
+    <t>Cross for the win</t>
+  </si>
+  <si>
+    <t>Two assist hero</t>
+  </si>
+  <si>
+    <t>Draw a card</t>
   </si>
 </sst>
 </file>
@@ -184,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -483,7 +501,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -535,30 +553,24 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -611,54 +623,58 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>12</v>
@@ -667,115 +683,159 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -986,6 +1046,11 @@
       <c r="K28" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K10" xr:uid="{920D6A6F-1337-4635-8875-2A5F4812876B}">
+    <sortState ref="A2:K10">
+      <sortCondition ref="J1:J10"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/events.xlsx
+++ b/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BCAA08-06E9-46B8-936B-6CF463013B5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220059D-90C2-4AF5-AC7F-5014EC5091B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/events.xlsx
+++ b/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfc90\Desktop\Footballteam\footballteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I852780\Desktop\football team\footballteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220059D-90C2-4AF5-AC7F-5014EC5091B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{828DE93D-803E-47B7-83D5-AA57A8E98CE7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{8647F8B8-294B-49BC-B5F8-C94F475E1A1D}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$K$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$K$9</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Hat-trick</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Counterattack</t>
   </si>
   <si>
-    <t>2 VP</t>
-  </si>
-  <si>
     <t>Defend against the Counterattack</t>
   </si>
   <si>
@@ -57,18 +54,6 @@
     <t>Events</t>
   </si>
   <si>
-    <t>3 VP</t>
-  </si>
-  <si>
-    <t>4 VP</t>
-  </si>
-  <si>
-    <t>5 VP</t>
-  </si>
-  <si>
-    <t>More rewards go here blablablabla</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
@@ -111,16 +96,79 @@
     <t>Score the penalty</t>
   </si>
   <si>
-    <t>1 VP</t>
-  </si>
-  <si>
     <t>Cross for the win</t>
   </si>
   <si>
     <t>Two assist hero</t>
   </si>
   <si>
-    <t>Draw a card</t>
+    <t>Tackle before the pass</t>
+  </si>
+  <si>
+    <t>Two easy goals</t>
+  </si>
+  <si>
+    <t>2 gold</t>
+  </si>
+  <si>
+    <t>Steal the ball</t>
+  </si>
+  <si>
+    <t>Draw 2 cards</t>
+  </si>
+  <si>
+    <t>Teamplayer</t>
+  </si>
+  <si>
+    <t>Draw until you have 5 cards in your hand</t>
+  </si>
+  <si>
+    <t>Shooting</t>
+  </si>
+  <si>
+    <t>Assisting</t>
+  </si>
+  <si>
+    <t>Defence</t>
+  </si>
+  <si>
+    <t>Banish a card from your discard pile</t>
+  </si>
+  <si>
+    <t>A great corner</t>
+  </si>
+  <si>
+    <t>Passing</t>
+  </si>
+  <si>
+    <t>1 gold</t>
+  </si>
+  <si>
+    <t>3 gold</t>
+  </si>
+  <si>
+    <t>Return the footballers from your discard pile to your hand</t>
+  </si>
+  <si>
+    <t>Search for a Sponsor.</t>
+  </si>
+  <si>
+    <t>Search for a Tactic</t>
+  </si>
+  <si>
+    <t>Search for a Footballer</t>
+  </si>
+  <si>
+    <t>Banish a card from your discard pile + 1 gold</t>
+  </si>
+  <si>
+    <t>Banish up to 2 cards from your discard pile</t>
+  </si>
+  <si>
+    <t>Offside trap</t>
+  </si>
+  <si>
+    <t>Other players need roll the "offside dice" next turn</t>
   </si>
 </sst>
 </file>
@@ -144,7 +192,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -177,12 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -202,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEBC7F1-EE45-4B6D-B9A1-C2B94529B8F7}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="H12:K12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -511,52 +557,52 @@
     <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="128.42578125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -567,258 +613,231 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
+      <c r="J3" s="2">
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
+      <c r="J6" s="2">
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -830,157 +849,297 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
+      <c r="J12" s="2">
+        <v>3</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="J17" s="2">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="J18" s="2">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="J19" s="2">
+        <v>8</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="J20" s="2">
+        <v>11</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>12</v>
+      </c>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>13</v>
+      </c>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2">
+        <v>14</v>
+      </c>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -993,7 +1152,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1006,7 +1165,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1019,7 +1178,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1032,23 +1191,1343 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1">
+        <f>COUNTIF($B$2:$D$27,  "shooting.svg")</f>
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <f>SUM(I28:L53)</f>
+        <v>29</v>
+      </c>
+      <c r="D28" s="1">
+        <f>IF(B2 = "assisting.svg",F2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:G43" si="0">IF(C2 = "assisting.svg",G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <f>IF(B2 = "shooting.svg",F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28:L28" si="1">IF(C2 = "shooting.svg",G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <f>IF(B2 = "defence.svg",F2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28:Q43" si="2">IF(C2 = "defence.svg",G2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <f>COUNTIF($B$2:$D$27,  "defence.svg")</f>
+        <v>11</v>
+      </c>
+      <c r="C29" s="1">
+        <f>SUM(N28:Q53)</f>
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:D43" si="3">IF(B3 = "assisting.svg",F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I43" si="4">IF(B3 = "shooting.svg",F3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" ref="J29:J43" si="5">IF(C3 = "shooting.svg",G3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" ref="K29:K43" si="6">IF(D3 = "shooting.svg",H3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" ref="L29:L43" si="7">IF(E3 = "shooting.svg",I3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29:N43" si="8">IF(B3 = "defence.svg",F3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <f>COUNTIF($B$2:$D$27,  "assisting.svg")</f>
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUM(D28:G53)</f>
+        <v>23</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D38" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D44" s="1">
+        <f t="shared" ref="D44:D53" si="9">IF(B18 = "assisting.svg",F18,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ref="E44:E53" si="10">IF(C18 = "assisting.svg",G18,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ref="F44:F53" si="11">IF(D18 = "assisting.svg",H18,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44:G53" si="12">IF(E18 = "assisting.svg",I18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ref="I44:I53" si="13">IF(B18 = "shooting.svg",F18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" ref="J44:J53" si="14">IF(C18 = "shooting.svg",G18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" ref="K44:K53" si="15">IF(D18 = "shooting.svg",H18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ref="L44:L53" si="16">IF(E18 = "shooting.svg",I18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44:N53" si="17">IF(B18 = "defence.svg",F18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ref="O44:O53" si="18">IF(C18 = "defence.svg",G18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" ref="P44:P53" si="19">IF(D18 = "defence.svg",H18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" ref="Q44:Q53" si="20">IF(E18 = "defence.svg",I18,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D45" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D46" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D47" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D48" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D49" s="1">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D50" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D51" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D52" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D53" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K10" xr:uid="{920D6A6F-1337-4635-8875-2A5F4812876B}">
-    <sortState ref="A2:K10">
-      <sortCondition ref="J1:J10"/>
+  <autoFilter ref="A1:K9" xr:uid="{920D6A6F-1337-4635-8875-2A5F4812876B}">
+    <sortState ref="A2:K23">
+      <sortCondition ref="J1:J9"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
